--- a/docs/odh/obf-NationalProviderIdentifier.xlsx
+++ b/docs/odh/obf-NationalProviderIdentifier.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="182">
   <si>
     <t>Path</t>
   </si>
@@ -324,7 +324,7 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Fixed_NPI</t>
+    <t>Fixed_PRN</t>
   </si>
   <si>
     <t>Identifier.type.coding.id</t>
@@ -397,7 +397,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>NPI</t>
+    <t>PRN</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/sid/us-npi</t>
   </si>
   <si>
     <t>CX.4 / EI-2-4</t>
@@ -2767,7 +2770,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>39</v>
@@ -2824,18 +2827,18 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2861,13 +2864,13 @@
         <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -2917,7 +2920,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -2932,18 +2935,18 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2966,13 +2969,13 @@
         <v>66</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3023,7 +3026,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3038,18 +3041,18 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3072,16 +3075,16 @@
         <v>66</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3131,7 +3134,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3146,13 +3149,13 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
